--- a/team_specific_matrix/DePaul_A.xlsx
+++ b/team_specific_matrix/DePaul_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2010309278350516</v>
+        <v>0.2</v>
       </c>
       <c r="C2">
-        <v>0.5463917525773195</v>
+        <v>0.55</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1288659793814433</v>
+        <v>0.1464285714285714</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1237113402061856</v>
+        <v>0.1035714285714286</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.009345794392523364</v>
+        <v>0.006451612903225806</v>
       </c>
       <c r="C3">
-        <v>0.01869158878504673</v>
+        <v>0.01935483870967742</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.006451612903225806</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7476635514018691</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2242990654205607</v>
+        <v>0.1935483870967742</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09523809523809523</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7619047619047619</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1428571428571428</v>
+        <v>0.2352941176470588</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04895104895104895</v>
+        <v>0.05238095238095238</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01398601398601399</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.004761904761904762</v>
       </c>
       <c r="F6">
-        <v>0.04895104895104895</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2097902097902098</v>
+        <v>0.2428571428571429</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02797202797202797</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1958041958041958</v>
+        <v>0.1809523809523809</v>
       </c>
       <c r="R6">
-        <v>0.06293706293706294</v>
+        <v>0.0761904761904762</v>
       </c>
       <c r="S6">
-        <v>0.3916083916083916</v>
+        <v>0.3428571428571429</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09302325581395349</v>
+        <v>0.1085714285714286</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02325581395348837</v>
+        <v>0.02285714285714286</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.005714285714285714</v>
       </c>
       <c r="F7">
-        <v>0.08527131782945736</v>
+        <v>0.07428571428571429</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1085271317829457</v>
+        <v>0.09142857142857143</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.01714285714285714</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2790697674418605</v>
+        <v>0.2514285714285714</v>
       </c>
       <c r="R7">
-        <v>0.02325581395348837</v>
+        <v>0.03428571428571429</v>
       </c>
       <c r="S7">
-        <v>0.3875968992248062</v>
+        <v>0.3942857142857143</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1355421686746988</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01506024096385542</v>
+        <v>0.01948051948051948</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04819277108433735</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09939759036144578</v>
+        <v>0.1017316017316017</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02108433734939759</v>
+        <v>0.01731601731601732</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1475903614457831</v>
+        <v>0.1536796536796537</v>
       </c>
       <c r="R8">
-        <v>0.05421686746987952</v>
+        <v>0.05844155844155844</v>
       </c>
       <c r="S8">
-        <v>0.4789156626506024</v>
+        <v>0.4761904761904762</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08771929824561403</v>
+        <v>0.07964601769911504</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.005847953216374269</v>
+        <v>0.01769911504424779</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07602339181286549</v>
+        <v>0.06637168141592921</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05263157894736842</v>
+        <v>0.05752212389380531</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03508771929824561</v>
+        <v>0.03097345132743363</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1695906432748538</v>
+        <v>0.1769911504424779</v>
       </c>
       <c r="R9">
-        <v>0.07602339181286549</v>
+        <v>0.06194690265486726</v>
       </c>
       <c r="S9">
-        <v>0.4970760233918128</v>
+        <v>0.5088495575221239</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1102831594634873</v>
+        <v>0.1166150670794634</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01639344262295082</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.08643815201192251</v>
+        <v>0.08668730650154799</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08345752608047691</v>
+        <v>0.08771929824561403</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01490312965722802</v>
+        <v>0.01547987616099071</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1892697466467958</v>
+        <v>0.1867905056759546</v>
       </c>
       <c r="R10">
-        <v>0.09090909090909091</v>
+        <v>0.0804953560371517</v>
       </c>
       <c r="S10">
-        <v>0.4083457526080477</v>
+        <v>0.4086687306501548</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1329787234042553</v>
+        <v>0.139622641509434</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05319148936170213</v>
+        <v>0.06415094339622641</v>
       </c>
       <c r="K11">
-        <v>0.1808510638297872</v>
+        <v>0.2</v>
       </c>
       <c r="L11">
-        <v>0.601063829787234</v>
+        <v>0.569811320754717</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.03191489361702127</v>
+        <v>0.02641509433962264</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7606837606837606</v>
+        <v>0.7770700636942676</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1538461538461539</v>
+        <v>0.1528662420382166</v>
       </c>
       <c r="K12">
-        <v>0.008547008547008548</v>
+        <v>0.006369426751592357</v>
       </c>
       <c r="L12">
-        <v>0.03418803418803419</v>
+        <v>0.02547770700636943</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04273504273504274</v>
+        <v>0.03821656050955414</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8333333333333334</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1666666666666667</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.04065040650406504</v>
+        <v>0.05113636363636364</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1544715447154472</v>
+        <v>0.1534090909090909</v>
       </c>
       <c r="I15">
-        <v>0.08943089430894309</v>
+        <v>0.1022727272727273</v>
       </c>
       <c r="J15">
-        <v>0.2357723577235772</v>
+        <v>0.25</v>
       </c>
       <c r="K15">
-        <v>0.06504065040650407</v>
+        <v>0.05681818181818182</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02439024390243903</v>
+        <v>0.01704545454545454</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06504065040650407</v>
+        <v>0.05681818181818182</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3252032520325203</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01694915254237288</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1949152542372881</v>
+        <v>0.1875</v>
       </c>
       <c r="I16">
-        <v>0.1355932203389831</v>
+        <v>0.1079545454545455</v>
       </c>
       <c r="J16">
-        <v>0.3898305084745763</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="K16">
-        <v>0.0847457627118644</v>
+        <v>0.07954545454545454</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.01694915254237288</v>
+        <v>0.02840909090909091</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1610169491525424</v>
+        <v>0.1647727272727273</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01476014760147601</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2066420664206642</v>
+        <v>0.216</v>
       </c>
       <c r="I17">
-        <v>0.1365313653136531</v>
+        <v>0.1173333333333333</v>
       </c>
       <c r="J17">
-        <v>0.4022140221402214</v>
+        <v>0.4106666666666667</v>
       </c>
       <c r="K17">
-        <v>0.06642066420664207</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02583025830258303</v>
+        <v>0.01866666666666667</v>
       </c>
       <c r="N17">
-        <v>0.003690036900369004</v>
+        <v>0.002666666666666667</v>
       </c>
       <c r="O17">
-        <v>0.05535055350553506</v>
+        <v>0.05866666666666667</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08856088560885608</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.009708737864077669</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.145631067961165</v>
+        <v>0.1884057971014493</v>
       </c>
       <c r="I18">
-        <v>0.1359223300970874</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="J18">
-        <v>0.3980582524271845</v>
+        <v>0.3623188405797101</v>
       </c>
       <c r="K18">
-        <v>0.1262135922330097</v>
+        <v>0.1159420289855072</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02912621359223301</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.02912621359223301</v>
+        <v>0.03623188405797102</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1262135922330097</v>
+        <v>0.1449275362318841</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01138952164009112</v>
+        <v>0.0129764801297648</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2482915717539863</v>
+        <v>0.2368207623682076</v>
       </c>
       <c r="I19">
-        <v>0.1070615034168565</v>
+        <v>0.1062449310624493</v>
       </c>
       <c r="J19">
-        <v>0.3211845102505695</v>
+        <v>0.326845093268451</v>
       </c>
       <c r="K19">
-        <v>0.1184510250569476</v>
+        <v>0.1192214111922141</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01366742596810934</v>
+        <v>0.0129764801297648</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05694760820045558</v>
+        <v>0.0583941605839416</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1230068337129841</v>
+        <v>0.1265206812652068</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/DePaul_A.xlsx
+++ b/team_specific_matrix/DePaul_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2</v>
+        <v>0.2032258064516129</v>
       </c>
       <c r="C2">
-        <v>0.55</v>
+        <v>0.5451612903225806</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1464285714285714</v>
+        <v>0.1451612903225807</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1035714285714286</v>
+        <v>0.1064516129032258</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006451612903225806</v>
+        <v>0.005882352941176471</v>
       </c>
       <c r="C3">
-        <v>0.01935483870967742</v>
+        <v>0.01764705882352941</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.006451612903225806</v>
+        <v>0.005882352941176471</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7741935483870968</v>
+        <v>0.7705882352941177</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1935483870967742</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05882352941176471</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7058823529411765</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2352941176470588</v>
+        <v>0.2162162162162162</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05238095238095238</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009523809523809525</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="E6">
-        <v>0.004761904761904762</v>
+        <v>0.004273504273504274</v>
       </c>
       <c r="F6">
-        <v>0.07142857142857142</v>
+        <v>0.07264957264957266</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2428571428571429</v>
+        <v>0.2478632478632479</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01904761904761905</v>
+        <v>0.02136752136752137</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1809523809523809</v>
+        <v>0.1837606837606838</v>
       </c>
       <c r="R6">
-        <v>0.0761904761904762</v>
+        <v>0.07264957264957266</v>
       </c>
       <c r="S6">
-        <v>0.3428571428571429</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1085714285714286</v>
+        <v>0.09895833333333333</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02285714285714286</v>
+        <v>0.02604166666666667</v>
       </c>
       <c r="E7">
-        <v>0.005714285714285714</v>
+        <v>0.005208333333333333</v>
       </c>
       <c r="F7">
-        <v>0.07428571428571429</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09142857142857143</v>
+        <v>0.08854166666666667</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01714285714285714</v>
+        <v>0.015625</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2514285714285714</v>
+        <v>0.2552083333333333</v>
       </c>
       <c r="R7">
-        <v>0.03428571428571429</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="S7">
-        <v>0.3942857142857143</v>
+        <v>0.3854166666666667</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1212121212121212</v>
+        <v>0.1211538461538462</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01948051948051948</v>
+        <v>0.01730769230769231</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05194805194805195</v>
+        <v>0.05384615384615385</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1017316017316017</v>
+        <v>0.1019230769230769</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01731601731601732</v>
+        <v>0.01730769230769231</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1536796536796537</v>
+        <v>0.1480769230769231</v>
       </c>
       <c r="R8">
-        <v>0.05844155844155844</v>
+        <v>0.06346153846153846</v>
       </c>
       <c r="S8">
-        <v>0.4761904761904762</v>
+        <v>0.4769230769230769</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07964601769911504</v>
+        <v>0.07874015748031496</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01769911504424779</v>
+        <v>0.01574803149606299</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06637168141592921</v>
+        <v>0.06299212598425197</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05752212389380531</v>
+        <v>0.05511811023622047</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03097345132743363</v>
+        <v>0.02755905511811024</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1769911504424779</v>
+        <v>0.1732283464566929</v>
       </c>
       <c r="R9">
-        <v>0.06194690265486726</v>
+        <v>0.06299212598425197</v>
       </c>
       <c r="S9">
-        <v>0.5088495575221239</v>
+        <v>0.5236220472440944</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1166150670794634</v>
+        <v>0.1155963302752294</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01754385964912281</v>
+        <v>0.01651376146788991</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.08668730650154799</v>
+        <v>0.0853211009174312</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08771929824561403</v>
+        <v>0.0889908256880734</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01547987616099071</v>
+        <v>0.01559633027522936</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1867905056759546</v>
+        <v>0.1908256880733945</v>
       </c>
       <c r="R10">
-        <v>0.0804953560371517</v>
+        <v>0.07981651376146789</v>
       </c>
       <c r="S10">
-        <v>0.4086687306501548</v>
+        <v>0.4073394495412844</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.139622641509434</v>
+        <v>0.1418685121107267</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06415094339622641</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="K11">
-        <v>0.2</v>
+        <v>0.1937716262975779</v>
       </c>
       <c r="L11">
-        <v>0.569811320754717</v>
+        <v>0.5813148788927336</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02641509433962264</v>
+        <v>0.02422145328719723</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7770700636942676</v>
+        <v>0.7613636363636364</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1528662420382166</v>
+        <v>0.1704545454545454</v>
       </c>
       <c r="K12">
-        <v>0.006369426751592357</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="L12">
-        <v>0.02547770700636943</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03821656050955414</v>
+        <v>0.03409090909090909</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7931034482758621</v>
+        <v>0.8125</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2068965517241379</v>
+        <v>0.1875</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.05113636363636364</v>
+        <v>0.046875</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1534090909090909</v>
+        <v>0.1510416666666667</v>
       </c>
       <c r="I15">
-        <v>0.1022727272727273</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="J15">
-        <v>0.25</v>
+        <v>0.2708333333333333</v>
       </c>
       <c r="K15">
-        <v>0.05681818181818182</v>
+        <v>0.05729166666666666</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01704545454545454</v>
+        <v>0.015625</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05681818181818182</v>
+        <v>0.05208333333333334</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3125</v>
+        <v>0.3020833333333333</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01136363636363636</v>
+        <v>0.0154639175257732</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1875</v>
+        <v>0.2061855670103093</v>
       </c>
       <c r="I16">
-        <v>0.1079545454545455</v>
+        <v>0.1030927835051546</v>
       </c>
       <c r="J16">
-        <v>0.4090909090909091</v>
+        <v>0.4072164948453608</v>
       </c>
       <c r="K16">
-        <v>0.07954545454545454</v>
+        <v>0.07731958762886598</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01136363636363636</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.02840909090909091</v>
+        <v>0.02577319587628866</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1647727272727273</v>
+        <v>0.154639175257732</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01333333333333333</v>
+        <v>0.01421800947867299</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.216</v>
+        <v>0.2132701421800948</v>
       </c>
       <c r="I17">
-        <v>0.1173333333333333</v>
+        <v>0.1137440758293839</v>
       </c>
       <c r="J17">
-        <v>0.4106666666666667</v>
+        <v>0.4146919431279621</v>
       </c>
       <c r="K17">
-        <v>0.06666666666666667</v>
+        <v>0.06635071090047394</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01866666666666667</v>
+        <v>0.01658767772511848</v>
       </c>
       <c r="N17">
-        <v>0.002666666666666667</v>
+        <v>0.002369668246445498</v>
       </c>
       <c r="O17">
-        <v>0.05866666666666667</v>
+        <v>0.05924170616113744</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.096</v>
+        <v>0.0995260663507109</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02173913043478261</v>
+        <v>0.0189873417721519</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1884057971014493</v>
+        <v>0.1962025316455696</v>
       </c>
       <c r="I18">
-        <v>0.108695652173913</v>
+        <v>0.1075949367088608</v>
       </c>
       <c r="J18">
-        <v>0.3623188405797101</v>
+        <v>0.3607594936708861</v>
       </c>
       <c r="K18">
-        <v>0.1159420289855072</v>
+        <v>0.1075949367088608</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02173913043478261</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.006329113924050633</v>
       </c>
       <c r="O18">
-        <v>0.03623188405797102</v>
+        <v>0.04430379746835443</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1449275362318841</v>
+        <v>0.1329113924050633</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0129764801297648</v>
+        <v>0.01236363636363636</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2368207623682076</v>
+        <v>0.2378181818181818</v>
       </c>
       <c r="I19">
-        <v>0.1062449310624493</v>
+        <v>0.1098181818181818</v>
       </c>
       <c r="J19">
-        <v>0.326845093268451</v>
+        <v>0.3265454545454545</v>
       </c>
       <c r="K19">
-        <v>0.1192214111922141</v>
+        <v>0.1170909090909091</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0129764801297648</v>
+        <v>0.01309090909090909</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.0583941605839416</v>
+        <v>0.056</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1265206812652068</v>
+        <v>0.1272727272727273</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/DePaul_A.xlsx
+++ b/team_specific_matrix/DePaul_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2032258064516129</v>
+        <v>0.2031746031746032</v>
       </c>
       <c r="C2">
-        <v>0.5451612903225806</v>
+        <v>0.546031746031746</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1451612903225807</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1064516129032258</v>
+        <v>0.1079365079365079</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005882352941176471</v>
+        <v>0.005714285714285714</v>
       </c>
       <c r="C3">
-        <v>0.01764705882352941</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.005882352941176471</v>
+        <v>0.005714285714285714</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7705882352941177</v>
+        <v>0.7657142857142857</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2</v>
+        <v>0.1942857142857143</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05405405405405406</v>
+        <v>0.05</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7297297297297297</v>
+        <v>0.75</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2162162162162162</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05128205128205128</v>
+        <v>0.04958677685950413</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01282051282051282</v>
+        <v>0.01239669421487603</v>
       </c>
       <c r="E6">
-        <v>0.004273504273504274</v>
+        <v>0.004132231404958678</v>
       </c>
       <c r="F6">
-        <v>0.07264957264957266</v>
+        <v>0.07024793388429752</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2478632478632479</v>
+        <v>0.2520661157024793</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02136752136752137</v>
+        <v>0.02066115702479339</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1837606837606838</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="R6">
-        <v>0.07264957264957266</v>
+        <v>0.0743801652892562</v>
       </c>
       <c r="S6">
-        <v>0.3333333333333333</v>
+        <v>0.3347107438016529</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09895833333333333</v>
+        <v>0.09743589743589744</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02604166666666667</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="E7">
-        <v>0.005208333333333333</v>
+        <v>0.005128205128205128</v>
       </c>
       <c r="F7">
-        <v>0.08333333333333333</v>
+        <v>0.08717948717948718</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08854166666666667</v>
+        <v>0.08717948717948718</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.015625</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2552083333333333</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="R7">
-        <v>0.04166666666666666</v>
+        <v>0.04102564102564103</v>
       </c>
       <c r="S7">
-        <v>0.3854166666666667</v>
+        <v>0.3846153846153846</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1211538461538462</v>
+        <v>0.1165755919854281</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01730769230769231</v>
+        <v>0.02003642987249545</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05384615384615385</v>
+        <v>0.0546448087431694</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1019230769230769</v>
+        <v>0.09836065573770492</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01730769230769231</v>
+        <v>0.01821493624772313</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1480769230769231</v>
+        <v>0.1493624772313297</v>
       </c>
       <c r="R8">
-        <v>0.06346153846153846</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="S8">
-        <v>0.4769230769230769</v>
+        <v>0.4772313296903461</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07874015748031496</v>
+        <v>0.07518796992481203</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01574803149606299</v>
+        <v>0.01503759398496241</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06299212598425197</v>
+        <v>0.06015037593984962</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05511811023622047</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02755905511811024</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1732283464566929</v>
+        <v>0.1804511278195489</v>
       </c>
       <c r="R9">
-        <v>0.06299212598425197</v>
+        <v>0.06390977443609022</v>
       </c>
       <c r="S9">
-        <v>0.5236220472440944</v>
+        <v>0.5263157894736842</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1155963302752294</v>
+        <v>0.115695067264574</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01651376146788991</v>
+        <v>0.01704035874439462</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.0853211009174312</v>
+        <v>0.08609865470852018</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0889908256880734</v>
+        <v>0.08699551569506726</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01559633027522936</v>
+        <v>0.01524663677130045</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1908256880733945</v>
+        <v>0.1901345291479821</v>
       </c>
       <c r="R10">
-        <v>0.07981651376146789</v>
+        <v>0.08071748878923767</v>
       </c>
       <c r="S10">
-        <v>0.4073394495412844</v>
+        <v>0.4080717488789238</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1418685121107267</v>
+        <v>0.1409395973154362</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05882352941176471</v>
+        <v>0.05704697986577181</v>
       </c>
       <c r="K11">
-        <v>0.1937716262975779</v>
+        <v>0.1912751677852349</v>
       </c>
       <c r="L11">
-        <v>0.5813148788927336</v>
+        <v>0.587248322147651</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02422145328719723</v>
+        <v>0.02348993288590604</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7613636363636364</v>
+        <v>0.7431693989071039</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1704545454545454</v>
+        <v>0.1912568306010929</v>
       </c>
       <c r="K12">
-        <v>0.01136363636363636</v>
+        <v>0.01092896174863388</v>
       </c>
       <c r="L12">
-        <v>0.02272727272727273</v>
+        <v>0.02185792349726776</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03409090909090909</v>
+        <v>0.03278688524590164</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.046875</v>
+        <v>0.045</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1510416666666667</v>
+        <v>0.15</v>
       </c>
       <c r="I15">
-        <v>0.1041666666666667</v>
+        <v>0.105</v>
       </c>
       <c r="J15">
-        <v>0.2708333333333333</v>
+        <v>0.26</v>
       </c>
       <c r="K15">
-        <v>0.05729166666666666</v>
+        <v>0.06</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.015625</v>
+        <v>0.015</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05208333333333334</v>
+        <v>0.055</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3020833333333333</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0154639175257732</v>
+        <v>0.015</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2061855670103093</v>
+        <v>0.215</v>
       </c>
       <c r="I16">
-        <v>0.1030927835051546</v>
+        <v>0.105</v>
       </c>
       <c r="J16">
-        <v>0.4072164948453608</v>
+        <v>0.4</v>
       </c>
       <c r="K16">
-        <v>0.07731958762886598</v>
+        <v>0.075</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01030927835051546</v>
+        <v>0.01</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.02577319587628866</v>
+        <v>0.025</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.154639175257732</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01421800947867299</v>
+        <v>0.01601830663615561</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2132701421800948</v>
+        <v>0.2196796338672769</v>
       </c>
       <c r="I17">
-        <v>0.1137440758293839</v>
+        <v>0.1167048054919908</v>
       </c>
       <c r="J17">
-        <v>0.4146919431279621</v>
+        <v>0.4050343249427917</v>
       </c>
       <c r="K17">
-        <v>0.06635071090047394</v>
+        <v>0.06636155606407322</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01658767772511848</v>
+        <v>0.01601830663615561</v>
       </c>
       <c r="N17">
-        <v>0.002369668246445498</v>
+        <v>0.002288329519450801</v>
       </c>
       <c r="O17">
-        <v>0.05924170616113744</v>
+        <v>0.05949656750572083</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.0995260663507109</v>
+        <v>0.09839816933638444</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0189873417721519</v>
+        <v>0.02395209580838323</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1962025316455696</v>
+        <v>0.1856287425149701</v>
       </c>
       <c r="I18">
-        <v>0.1075949367088608</v>
+        <v>0.1077844311377246</v>
       </c>
       <c r="J18">
-        <v>0.3607594936708861</v>
+        <v>0.3712574850299401</v>
       </c>
       <c r="K18">
-        <v>0.1075949367088608</v>
+        <v>0.1077844311377246</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02531645569620253</v>
+        <v>0.02395209580838323</v>
       </c>
       <c r="N18">
-        <v>0.006329113924050633</v>
+        <v>0.005988023952095809</v>
       </c>
       <c r="O18">
-        <v>0.04430379746835443</v>
+        <v>0.04191616766467066</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1329113924050633</v>
+        <v>0.1317365269461078</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01236363636363636</v>
+        <v>0.01193820224719101</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2378181818181818</v>
+        <v>0.2429775280898877</v>
       </c>
       <c r="I19">
-        <v>0.1098181818181818</v>
+        <v>0.1102528089887641</v>
       </c>
       <c r="J19">
-        <v>0.3265454545454545</v>
+        <v>0.3223314606741573</v>
       </c>
       <c r="K19">
-        <v>0.1170909090909091</v>
+        <v>0.1165730337078652</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01309090909090909</v>
+        <v>0.01264044943820225</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.056</v>
+        <v>0.05617977528089887</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1272727272727273</v>
+        <v>0.1271067415730337</v>
       </c>
     </row>
   </sheetData>
